--- a/计组第六次作业.xlsx
+++ b/计组第六次作业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,137 +39,100 @@
     <t>RAM_Addr_s_HUANG021</t>
   </si>
   <si>
+    <t>SW_HUANG021,LW_HUANG021</t>
+  </si>
+  <si>
+    <t>R_MEM_HUANG021</t>
+  </si>
+  <si>
+    <t>LW_HUANG021</t>
+  </si>
+  <si>
+    <t>ALU_X_sel</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,
+SW_HUANG021,   BEQ_HUANG021,   ADDI_HUANG021,LW_HUANG021,OR_HUANG021,</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SW_HUANG021,</t>
+      <t xml:space="preserve">SUB_HUANG021 </t>
+    </r>
+  </si>
+  <si>
+    <t>ALU_Y_sel[0]</t>
+  </si>
+  <si>
+    <t>BEQ_HUANG021</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,BEQ_HUANG021,OR_HUANG021,</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LW_HUANG021</t>
+      <t>SUB_HUANG021</t>
     </r>
   </si>
   <si>
-    <t>R_MEM_HUANG021</t>
-  </si>
-  <si>
-    <t>LW_HUANG021</t>
-  </si>
-  <si>
-    <t>ALU_X_sel</t>
-  </si>
-  <si>
+    <t>ALU_Y_sel[1]</t>
+  </si>
+  <si>
+    <t>SW_HUANG021,ADDI_HUANG021,,LW_HUANG021</t>
+  </si>
+  <si>
+    <t>ALU_OP[0]</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,
+SW_HUANG021,   BEQ_HUANG021,   ADDI_HUANG021
+,LW_HUANG021 ,</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ADD_HUANG021,
-SW_HUANG021,   BEQ_HUANG021,   ADDI_HUANG021,</t>
+      <t>SUB_HUANG021</t>
+    </r>
+  </si>
+  <si>
+    <t>ALU_OP[1]</t>
+  </si>
+  <si>
+    <r>
+      <t>BEQ_HUANG021,OR_HUANG021,</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">LW_HUANG021,OR_HUANG021  </t>
-    </r>
-  </si>
-  <si>
-    <t>ALU_Y_sel[0]</t>
-  </si>
-  <si>
-    <t>BEQ_HUANG021</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD_HUANG021,BEQ_HUANG021,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>ALU_Y_sel[1]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SW_HUANG021,ADDI_HUANG021,,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LW_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>ALU_OP[0]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD_HUANG021,
-SW_HUANG021,   BEQ_HUANG021,   ADDI_HUANG021
-,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LW_HUANG021</t>
+      <t>SUB_HUANG021</t>
     </r>
     <r>
       <rPr>
@@ -179,191 +142,130 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
-    <t>ALU_OP[1]</t>
-  </si>
-  <si>
+    <t>ALU_OP[2]</t>
+  </si>
+  <si>
+    <t>OR_HUANG021</t>
+  </si>
+  <si>
+    <t>ALU_OP[3]</t>
+  </si>
+  <si>
+    <t>W_F_HUANG021</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,SW_HUANG021,
+ADDI_HUANG021,LW_HUANG021,OR_HUANG021,</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BEQ_HUANG021,</t>
+      <t>SUB_HUANG021</t>
+    </r>
+  </si>
+  <si>
+    <t>W_PC_HUANG021</t>
+  </si>
+  <si>
+    <t>BEQ_HUANG021&amp;ZF</t>
+  </si>
+  <si>
+    <t>PC_D_SEL_HUANG021</t>
+  </si>
+  <si>
+    <t>W_IR_HUANG021</t>
+  </si>
+  <si>
+    <t>rd_rt_sel_HUANG021[0]</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,
+OR_HUANG021,</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">OR_HUANG021
-</t>
+      <t>SUB_HUANG021</t>
     </r>
   </si>
   <si>
-    <t>ALU_OP[2]</t>
-  </si>
-  <si>
-    <t>OR_HUANG021</t>
-  </si>
-  <si>
-    <t>ALU_OP[3]</t>
-  </si>
-  <si>
-    <t>W_F_HUANG021</t>
-  </si>
-  <si>
+    <t>rd_rt_sel_HUANG021[1]</t>
+  </si>
+  <si>
+    <t>GR_D_s_HUANG021[0]</t>
+  </si>
+  <si>
+    <t>GR_D_s_HUANG021[1]</t>
+  </si>
+  <si>
+    <t>W_GR_HUANG021</t>
+  </si>
+  <si>
+    <r>
+      <t>(OF=0)&amp;ADD_HUANG021
++(OF=0)&amp;ADDI_HUANG021+(OF=0)&amp;OR_HUANG021,</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ADD_HUANG021,SW_HUANG021,
-ADDI_HUANG021,</t>
+      <t>(OF=0)&amp;SUB_HUANG021</t>
+    </r>
+  </si>
+  <si>
+    <t>W_RAM_HUANG021</t>
+  </si>
+  <si>
+    <t>SW_HUANG021</t>
+  </si>
+  <si>
+    <t>S_EXTEND_HUANG021</t>
+  </si>
+  <si>
+    <t>SW_HUANG021,ADDI_HUANG021,LW_HUANG021</t>
+  </si>
+  <si>
+    <t>SKIP_HUANG021</t>
+  </si>
+  <si>
+    <r>
+      <t>ADD_HUANG021,
+ADDI_HUANG021,SW_HUANG021,OR_HUANG021,</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LW_HUANG021,OR_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>W_PC_HUANG021</t>
-  </si>
-  <si>
-    <t>BEQ_HUANG021&amp;ZF</t>
-  </si>
-  <si>
-    <t>PC_D_SEL_HUANG021</t>
-  </si>
-  <si>
-    <t>W_IR_HUANG021</t>
-  </si>
-  <si>
-    <t>rd_rt_sel_HUANG021[0]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD_HUANG021,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-OR_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>rd_rt_sel_HUANG021[1]</t>
-  </si>
-  <si>
-    <t>GR_D_s_HUANG021[0]</t>
-  </si>
-  <si>
-    <t>GR_D_s_HUANG021[1]</t>
-  </si>
-  <si>
-    <t>W_GR_HUANG021</t>
-  </si>
-  <si>
-    <r>
-      <t>(OF=0)&amp;ADD_HUANG021
-+(OF=0)&amp;ADDI_HUANG021+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>W_RAM_HUANG021</t>
-  </si>
-  <si>
-    <t>SW_HUANG021</t>
-  </si>
-  <si>
-    <t>S_EXTEND_HUANG021</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SW_HUANG021,ADDI_HUANG021,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LW_HUANG021</t>
-    </r>
-  </si>
-  <si>
-    <t>SKIP_HUANG021</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD_HUANG021,
-ADDI_HUANG021,SW_HUANG021,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR_HUANG021</t>
+      <t>SUB_HUANG021</t>
     </r>
   </si>
   <si>
@@ -390,13 +292,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -537,6 +432,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -848,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,33 +763,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,114 +802,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,13 +1254,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
@@ -1369,226 +1269,335 @@
     <col min="5" max="5" width="23.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="108" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" ht="108" customHeight="1" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" ht="43.2" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="28.8" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" ht="72" spans="1:4">
-      <c r="A8" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" ht="43.2" spans="1:4">
-      <c r="A9" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" ht="43.2" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" ht="57.6" spans="1:4">
-      <c r="A12" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" ht="72" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" ht="28.8" spans="1:5">
-      <c r="A16" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" ht="43.2" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" ht="43.2" spans="1:6">
-      <c r="A20" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" ht="57.6" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:4">
-      <c r="A22" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" ht="28.8" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" ht="43.2" spans="1:6">
-      <c r="A23" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" ht="57.6" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
